--- a/Basic-Math-Quiz-ThepExcel-v2.xlsx
+++ b/Basic-Math-Quiz-ThepExcel-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe179d052201f582/web/math-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{DDD886D9-0E14-4F5A-BD10-DD249D9E8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CF17C9-D569-45E6-858C-32CD3CF4466D}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{DDD886D9-0E14-4F5A-BD10-DD249D9E8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B6185D-242B-4216-9EAA-DD38835B96BA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{009A7E50-16FE-480A-9779-7429B243D7E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{009A7E50-16FE-480A-9779-7429B243D7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="บวก" sheetId="7" r:id="rId1"/>
@@ -347,6 +347,11 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,11 +361,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -1075,17 +1075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="8">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>2</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9876</v>
+        <v>7274</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7553</v>
+        <v>4850</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>15919</v>
+        <v>7723</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)15919</v>
+        <v>1.)7723</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.5" customHeight="1">
@@ -1175,25 +1175,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>16706</v>
+        <v>5183</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)15919  2.)16706</v>
+        <v>1.)7723  2.)5183</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>6043</v>
+        <v>449</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>9153</v>
+        <v>333</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>15106</v>
+        <v>9959</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)15919  2.)16706  3.)15106</v>
+        <v>1.)7723  2.)5183  3.)9959</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.5" customHeight="1">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>5250</v>
+        <v>2152</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)15919  2.)16706  3.)15106  4.)5250</v>
+        <v>1.)7723  2.)5183  3.)9959  4.)2152</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -1239,11 +1239,11 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>10778</v>
+        <v>9370</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)15919  2.)16706  3.)15106  4.)5250  5.)10778</v>
+        <v>1.)7723  2.)5183  3.)9959  4.)2152  5.)9370</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>10025</v>
+        <v>2305</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)10025</v>
+        <v>6.)2305</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>6866</v>
+        <v>9358</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>4114</v>
+        <v>1329</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>16415</v>
+        <v>3550</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)10025  7.)16415</v>
+        <v>6.)2305  7.)3550</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.5" customHeight="1">
@@ -1318,25 +1318,25 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>10984</v>
+        <v>2261</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)10025  7.)16415  8.)10984</v>
+        <v>6.)2305  7.)3550  8.)2261</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>8240</v>
+        <v>601</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>1136</v>
+        <v>823</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>4918</v>
+        <v>9999</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)10025  7.)16415  8.)10984  9.)4918</v>
+        <v>6.)2305  7.)3550  8.)2261  9.)9999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.5" customHeight="1">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>14714</v>
+        <v>6184</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)10025  7.)16415  8.)10984  9.)4918  10.)14714</v>
+        <v>6.)2305  7.)3550  8.)2261  9.)9999  10.)6184</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>1505</v>
+        <v>8564</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>8237</v>
+        <v>2037</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -1427,14 +1427,14 @@
       <c r="B18" s="22"/>
       <c r="C18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>9273</v>
+        <v>806</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>1788</v>
+        <v>268</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7091</v>
+        <v>3076</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>4100</v>
+        <v>2157</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -1503,14 +1503,14 @@
       <c r="B24" s="22"/>
       <c r="C24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>9324</v>
+        <v>474</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>6884</v>
+        <v>104</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3760</v>
+        <v>9085</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>6012</v>
+        <v>5771</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -1579,14 +1579,14 @@
       <c r="B30" s="22"/>
       <c r="C30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>1158</v>
+        <v>914</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>8702</v>
+        <v>413</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -1623,32 +1623,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="34" t="str">
+      <c r="A35" s="37" t="str">
         <f ca="1">L8</f>
-        <v>1.)15919  2.)16706  3.)15106  4.)5250  5.)10778</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+        <v>1.)7723  2.)5183  3.)9959  4.)2152  5.)9370</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="34" t="str">
+      <c r="A36" s="37" t="str">
         <f ca="1">L13</f>
-        <v>6.)10025  7.)16415  8.)10984  9.)4918  10.)14714</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+        <v>6.)2305  7.)3550  8.)2261  9.)9999  10.)6184</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -1667,7 +1667,7 @@
     <mergeCell ref="A36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF31B86-64E9-4335-8F19-78C89DF1DAB8}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -1689,17 +1689,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>2</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9696</v>
+        <v>934</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9612</v>
+        <v>772</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>5563</v>
+        <v>250</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)5563</v>
+        <v>1.)250</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.5" customHeight="1">
@@ -1789,25 +1789,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>7999</v>
+        <v>426</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)5563  2.)7999</v>
+        <v>1.)250  2.)426</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>4133</v>
+        <v>684</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>1613</v>
+        <v>346</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -1815,11 +1815,11 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>1002</v>
+        <v>620</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)5563  2.)7999  3.)1002</v>
+        <v>1.)250  2.)426  3.)620</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.5" customHeight="1">
@@ -1835,11 +1835,11 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>3832</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)5563  2.)7999  3.)1002  4.)3832</v>
+        <v>1.)250  2.)426  3.)620  4.)1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>4834</v>
+        <v>5</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)5563  2.)7999  3.)1002  4.)3832  5.)4834</v>
+        <v>1.)250  2.)426  3.)620  4.)1  5.)5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)219</v>
+        <v>6.)295</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="C10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>6374</v>
+        <v>893</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>6308</v>
+        <v>107</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -1900,11 +1900,11 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)219  7.)48</v>
+        <v>6.)295  7.)303</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.5" customHeight="1">
@@ -1932,25 +1932,25 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>1865</v>
+        <v>104</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)219  7.)48  8.)1865</v>
+        <v>6.)295  7.)303  8.)104</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>5372</v>
+        <v>273</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>2476</v>
+        <v>106</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>1417</v>
+        <v>356</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)219  7.)48  8.)1865  9.)1417</v>
+        <v>6.)295  7.)303  8.)104  9.)356</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.5" customHeight="1">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>2918</v>
+        <v>194</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)219  7.)48  8.)1865  9.)1417  10.)2918</v>
+        <v>6.)295  7.)303  8.)104  9.)356  10.)194</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="C16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>8716</v>
+        <v>123</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="G16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3909</v>
+        <v>915</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -2041,14 +2041,14 @@
       <c r="B18" s="22"/>
       <c r="C18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>3882</v>
+        <v>118</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>3690</v>
+        <v>620</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>1578</v>
+        <v>629</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>4254</v>
+        <v>804</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -2117,14 +2117,14 @@
       <c r="B24" s="22"/>
       <c r="C24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>1530</v>
+        <v>326</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>2389</v>
+        <v>700</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7290</v>
+        <v>563</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="G28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>5269</v>
+        <v>509</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -2193,14 +2193,14 @@
       <c r="B30" s="22"/>
       <c r="C30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>5873</v>
+        <v>207</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>2351</v>
+        <v>315</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2237,32 +2237,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="34" t="str">
+      <c r="A35" s="37" t="str">
         <f ca="1">L8</f>
-        <v>1.)5563  2.)7999  3.)1002  4.)3832  5.)4834</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+        <v>1.)250  2.)426  3.)620  4.)1  5.)5</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="34" t="str">
+      <c r="A36" s="37" t="str">
         <f ca="1">L13</f>
-        <v>6.)219  7.)48  8.)1865  9.)1417  10.)2918</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+        <v>6.)295  7.)303  8.)104  9.)356  10.)194</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -2281,7 +2281,7 @@
     <mergeCell ref="A36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2291,7 +2291,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -2303,17 +2303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="8">
         <v>1</v>
       </c>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>2</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7163</v>
+        <v>130</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7810</v>
+        <v>171</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -2371,11 +2371,11 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>9400</v>
+        <v>707</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)9400</v>
+        <v>1.)707</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.5" customHeight="1">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>4272</v>
+        <v>19</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)9400  2.)4272</v>
+        <v>1.)707  2.)19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>2237</v>
+        <v>577</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>3538</v>
+        <v>152</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -2429,11 +2429,11 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>9223</v>
+        <v>426</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)9400  2.)4272  3.)9223</v>
+        <v>1.)707  2.)19  3.)426</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.5" customHeight="1">
@@ -2449,11 +2449,11 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>8595</v>
+        <v>254</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)9400  2.)4272  3.)9223  4.)8595</v>
+        <v>1.)707  2.)19  3.)426  4.)254</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -2467,11 +2467,11 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>7430</v>
+        <v>631</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)9400  2.)4272  3.)9223  4.)8595  5.)7430</v>
+        <v>1.)707  2.)19  3.)426  4.)254  5.)631</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
@@ -2480,11 +2480,11 @@
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)265</v>
+        <v>6.)344</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>4305</v>
+        <v>798</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="G10" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3904</v>
+        <v>617</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -2514,57 +2514,57 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>1983</v>
+        <v>889</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)265  7.)1983</v>
+        <v>6.)344  7.)889</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.5" customHeight="1">
       <c r="B11" s="4">
         <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="27" t="str">
         <f ca="1">CHOOSE(B11,"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="4">
         <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="27" t="str">
         <f ca="1">CHOOSE(F11,"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="J11" s="8">
         <v>8</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>5669</v>
+        <v>1162</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)265  7.)1983  8.)5669</v>
+        <v>6.)344  7.)889  8.)1162</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>4918</v>
+        <v>372</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>4691</v>
+        <v>363</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -2572,11 +2572,11 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>14580</v>
+        <v>947</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)265  7.)1983  8.)5669  9.)14580</v>
+        <v>6.)344  7.)889  8.)1162  9.)947</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.5" customHeight="1">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>13059</v>
+        <v>39</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)265  7.)1983  8.)5669  9.)14580  10.)13059</v>
+        <v>6.)344  7.)889  8.)1162  9.)947  10.)39</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="C16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>2004</v>
+        <v>120</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="G16" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3047</v>
+        <v>697</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -2655,14 +2655,14 @@
       <c r="B18" s="22"/>
       <c r="C18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>5426</v>
+        <v>511</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>2782</v>
+        <v>353</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3208</v>
+        <v>505</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G22" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9298</v>
+        <v>427</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -2709,36 +2709,36 @@
     <row r="23" spans="2:9" ht="12.5" customHeight="1">
       <c r="B23" s="4">
         <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="27" t="str">
         <f ca="1">CHOOSE(B23,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="4">
         <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="27" t="str">
         <f ca="1">CHOOSE(F23,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="24.5" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>1225</v>
+        <v>384</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>3629</v>
+        <v>735</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9643</v>
+        <v>594</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="G28" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>6138</v>
+        <v>212</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -2795,26 +2795,26 @@
       <c r="E29" s="24"/>
       <c r="F29" s="4">
         <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="27" t="str">
         <f ca="1">CHOOSE(F29,"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="24.5" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>4937</v>
+        <v>353</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>6921</v>
+        <v>173</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2851,32 +2851,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="34" t="str">
+      <c r="A35" s="37" t="str">
         <f ca="1">L8</f>
-        <v>1.)9400  2.)4272  3.)9223  4.)8595  5.)7430</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+        <v>1.)707  2.)19  3.)426  4.)254  5.)631</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="34" t="str">
+      <c r="A36" s="37" t="str">
         <f ca="1">L13</f>
-        <v>6.)265  7.)1983  8.)5669  9.)14580  10.)13059</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+        <v>6.)344  7.)889  8.)1162  9.)947  10.)39</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -2895,7 +2895,7 @@
     <mergeCell ref="A36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2904,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AD2D34-D23D-4998-A5D6-C8614D4A272A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -2917,17 +2917,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="A1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="8">
         <v>1</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="34">
         <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2974,23 +2974,23 @@
       </c>
       <c r="G4" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>610</v>
+        <v>507</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
         <f>B4&amp;".)"&amp;H4</f>
         <v>1.)</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>1</v>
       </c>
       <c r="K4">
         <f ca="1">C4*C6</f>
-        <v>32550</v>
+        <v>9269</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)32550</v>
+        <v>1.)9269</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.5" customHeight="1">
@@ -3011,42 +3011,42 @@
       <c r="H5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>2</v>
       </c>
       <c r="K5">
         <f ca="1">G4*G6</f>
-        <v>39650</v>
+        <v>42588</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)32550  2.)39650</v>
+        <v>1.)9269  2.)42588</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>3</v>
       </c>
       <c r="K6">
         <f ca="1">C12*C14</f>
-        <v>9207</v>
+        <v>12432</v>
       </c>
       <c r="L6" s="8" t="str">
         <f ca="1">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)32550  2.)39650  3.)9207</v>
+        <v>1.)9269  2.)42588  3.)12432</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.5" customHeight="1">
@@ -3057,16 +3057,16 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>4</v>
       </c>
       <c r="K7">
         <f ca="1">G12*G14</f>
-        <v>50358</v>
+        <v>7181</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ref="L7:L9" ca="1" si="0">L6&amp;"  "&amp;J7&amp;".)"&amp;K7</f>
-        <v>1.)32550  2.)39650  3.)9207  4.)50358</v>
+        <v>1.)9269  2.)42588  3.)12432  4.)7181</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.5" customHeight="1">
@@ -3077,16 +3077,16 @@
       <c r="F8" s="22"/>
       <c r="G8" s="25"/>
       <c r="H8" s="24"/>
-      <c r="J8" s="36">
+      <c r="J8" s="33">
         <v>5</v>
       </c>
       <c r="K8">
         <f ca="1">C20*C22</f>
-        <v>30348</v>
+        <v>22816</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)32550  2.)39650  3.)9207  4.)50358  5.)30348</v>
+        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.5" customHeight="1">
@@ -3097,16 +3097,16 @@
       <c r="F9" s="22"/>
       <c r="G9" s="25"/>
       <c r="H9" s="24"/>
-      <c r="J9" s="36">
+      <c r="J9" s="33">
         <v>6</v>
       </c>
       <c r="K9">
         <f ca="1">G20*G22</f>
-        <v>31620</v>
+        <v>14601</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)32550  2.)39650  3.)9207  4.)50358  5.)30348  6.)31620</v>
+        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816  6.)14601</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
@@ -3115,12 +3115,12 @@
       <c r="E10" s="24"/>
       <c r="F10" s="22"/>
       <c r="G10" s="26"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="28"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="17" customHeight="1" thickTop="1">
-      <c r="J11" s="36"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="28"/>
       <c r="L11" s="8"/>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C12" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>279</v>
+        <v>592</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3141,14 +3141,14 @@
       </c>
       <c r="G12" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>654</v>
+        <v>167</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="8" t="str">
         <f>B12&amp;".)"&amp;H12</f>
         <v>3.)</v>
       </c>
-      <c r="J12" s="36"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="28"/>
       <c r="L12" s="8"/>
     </row>
@@ -3170,7 +3170,7 @@
       <c r="H13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="28"/>
       <c r="L13" s="8"/>
     </row>
@@ -3178,17 +3178,17 @@
       <c r="B14" s="22"/>
       <c r="C14" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B13=2),MIN(C12,10^$F$2),10^$F$2)-1)</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="22"/>
       <c r="G14" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F13=2),MIN(G12,10^$F$2),10^$F$2)-1)</f>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H14" s="24"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="28"/>
       <c r="L14" s="8"/>
     </row>
@@ -3200,7 +3200,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
-      <c r="J15" s="36"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="28"/>
       <c r="L15" s="8"/>
     </row>
@@ -3212,7 +3212,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
-      <c r="J16" s="36"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="28"/>
       <c r="L16" s="8"/>
     </row>
@@ -3224,7 +3224,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="28"/>
       <c r="L17" s="8"/>
     </row>
@@ -3234,12 +3234,12 @@
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="26"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="28"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="17" customHeight="1" thickTop="1">
-      <c r="J19" s="36"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="28"/>
       <c r="L19" s="8"/>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C20" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -3260,14 +3260,14 @@
       </c>
       <c r="G20" s="20">
         <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="8" t="str">
         <f>B20&amp;".)"&amp;H20</f>
         <v>5.)</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="28"/>
       <c r="L20" s="8"/>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="H21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="28"/>
       <c r="L21" s="8"/>
     </row>
@@ -3297,17 +3297,17 @@
       <c r="B22" s="22"/>
       <c r="C22" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B21=2),MIN(C20,10^$F$2),10^$F$2)-1)</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25">
         <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F21=2),MIN(G20,10^$F$2),10^$F$2)-1)</f>
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="28"/>
       <c r="L22" s="8"/>
     </row>
@@ -3319,7 +3319,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
       <c r="H23" s="24"/>
-      <c r="J23" s="36"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="28"/>
       <c r="L23" s="8"/>
     </row>
@@ -3331,7 +3331,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="25"/>
       <c r="H24" s="24"/>
-      <c r="J24" s="36"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="28"/>
       <c r="L24" s="8"/>
     </row>
@@ -3343,7 +3343,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="25"/>
       <c r="H25" s="24"/>
-      <c r="J25" s="36"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="28"/>
       <c r="L25" s="8"/>
     </row>
@@ -3353,12 +3353,12 @@
       <c r="E26" s="24"/>
       <c r="F26" s="22"/>
       <c r="G26" s="26"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="28"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="17" customHeight="1" thickTop="1">
-      <c r="J27" s="36"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="28"/>
       <c r="L27" s="8"/>
     </row>
@@ -3379,29 +3379,29 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A30" s="34" t="str">
+      <c r="A30" s="37" t="str">
         <f ca="1">L9</f>
-        <v>1.)32550  2.)39650  3.)9207  4.)50358  5.)30348  6.)31620</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816  6.)14601</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
     </row>
     <row r="31" spans="1:12" ht="14.5">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:12" ht="5.5" customHeight="1">
       <c r="A32" s="29"/>
@@ -3426,7 +3426,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3436,7 +3436,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3445,17 +3445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
@@ -3474,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -3493,14 +3493,14 @@
       </c>
       <c r="C4" s="5">
         <f ca="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5">
         <f ca="1">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -3508,11 +3508,11 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8">
         <f ca="1">C4*E4</f>
-        <v>512</v>
+        <v>2480</v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".)"&amp;H4</f>
-        <v>1.)512</v>
+        <v>1.)2480</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3521,18 +3521,18 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:B23" ca="1" si="0">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E23" ca="1" si="2">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3540,11 +3540,11 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8">
         <f t="shared" ref="H5:H23" ca="1" si="3">C5*E5</f>
-        <v>305</v>
+        <v>5185</v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".)"&amp;H5</f>
-        <v>1.)512  2.)305</v>
+        <v>1.)2480  2.)5185</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3553,18 +3553,18 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3572,11 +3572,11 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <v>1089</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I13" ca="1" si="4">I5&amp;"  "&amp;A6&amp;".)"&amp;H6</f>
-        <v>1.)512  2.)305  3.)210</v>
+        <v>1.)2480  2.)5185  3.)1089</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3585,18 +3585,18 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3604,11 +3604,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>360</v>
+        <v>2185</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3617,18 +3617,18 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3636,11 +3636,11 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>364</v>
+        <v>7176</v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3649,18 +3649,18 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3668,11 +3668,11 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>693</v>
+        <v>5544</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3685,14 +3685,14 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3700,11 +3700,11 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>3763</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693  7.)34</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3713,18 +3713,18 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3732,11 +3732,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>186</v>
+        <v>1850</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693  7.)34  8.)186</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3745,18 +3745,18 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3764,11 +3764,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>108</v>
+        <v>6300</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693  7.)34  8.)186  9.)108</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3781,14 +3781,14 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3796,11 +3796,11 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>5925</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693  7.)34  8.)186  9.)108  10.)219</v>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300  10.)5925</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3813,14 +3813,14 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3828,11 +3828,11 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>171</v>
+        <v>4428</v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".)"&amp;H14</f>
-        <v>11.)171</v>
+        <v>11.)4428</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3860,11 +3860,11 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>1320</v>
       </c>
       <c r="I15" s="8" t="str">
         <f ca="1">I14&amp;"  "&amp;A15&amp;".)"&amp;H15</f>
-        <v>11.)171  12.)91</v>
+        <v>11.)4428  12.)1320</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3877,14 +3877,14 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3892,11 +3892,11 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>5180</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ref="I16:I23" ca="1" si="5">I15&amp;"  "&amp;A16&amp;".)"&amp;H16</f>
-        <v>11.)171  12.)91  13.)70</v>
+        <v>11.)4428  12.)1320  13.)5180</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3905,18 +3905,18 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3924,11 +3924,11 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>1740</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3941,14 +3941,14 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3956,11 +3956,11 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>135</v>
+        <v>594</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3969,18 +3969,18 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -3988,11 +3988,11 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>8084</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4005,14 +4005,14 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -4020,11 +4020,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>3384</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36  17.)85</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4037,14 +4037,14 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4052,11 +4052,11 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36  17.)85  18.)120</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4069,14 +4069,14 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4084,11 +4084,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>354</v>
+        <v>3984</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36  17.)85  18.)120  19.)354</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4097,18 +4097,18 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -4116,11 +4116,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>2736</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36  17.)85  18.)120  19.)354  20.)87</v>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984  20.)2736</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1"/>
@@ -4141,50 +4141,50 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="34" t="str">
+      <c r="A27" s="37" t="str">
         <f ca="1">I13</f>
-        <v>1.)512  2.)305  3.)210  4.)360  5.)364  6.)693  7.)34  8.)186  9.)108  10.)219</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300  10.)5925</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34" t="str">
+      <c r="A29" s="37" t="str">
         <f ca="1">I23</f>
-        <v>11.)171  12.)91  13.)70  14.)26  15.)135  16.)36  17.)85  18.)120  19.)354  20.)87</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984  20.)2736</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4194,7 +4194,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="I14" formula="1"/>
   </ignoredErrors>
@@ -4207,7 +4207,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4216,17 +4216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B4" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <f ca="1">RANDBETWEEN(10^($G$3-1),10^$G$3-1)*E4</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
@@ -4279,11 +4279,11 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8">
         <f ca="1">C4/E4</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".)"&amp;H4</f>
-        <v>1.)28</v>
+        <v>1.)12</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($G$3-1),10^$G$3-1)*E5</f>
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
@@ -4311,11 +4311,11 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8">
         <f t="shared" ref="H5:H23" ca="1" si="3">C5/E5</f>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".)"&amp;H5</f>
-        <v>1.)28  2.)60</v>
+        <v>1.)12  2.)43</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4324,18 +4324,18 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>672</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4343,11 +4343,11 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I13" ca="1" si="4">I5&amp;"  "&amp;A6&amp;".)"&amp;H6</f>
-        <v>1.)28  2.)60  3.)35</v>
+        <v>1.)12  2.)43  3.)96</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4356,18 +4356,18 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>675</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4375,11 +4375,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12</v>
+        <v>1.)12  2.)43  3.)96  4.)75</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4388,11 +4388,11 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
@@ -4407,11 +4407,11 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4420,18 +4420,18 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4439,11 +4439,11 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4456,14 +4456,14 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4471,11 +4471,11 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26  7.)51</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4484,11 +4484,11 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>696</v>
+        <v>296</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>7</v>
@@ -4503,11 +4503,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26  7.)51  8.)87</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4516,11 +4516,11 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>7</v>
@@ -4535,11 +4535,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26  7.)51  8.)87  9.)10</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4548,11 +4548,11 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
@@ -4567,11 +4567,11 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26  7.)51  8.)87  9.)10  10.)55</v>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26  10.)11</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>657</v>
+        <v>135</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>7</v>
@@ -4599,11 +4599,11 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".)"&amp;H14</f>
-        <v>11.)73</v>
+        <v>11.)15</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>441</v>
+        <v>174</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4631,11 +4631,11 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I15" s="8" t="str">
         <f ca="1">I14&amp;"  "&amp;A15&amp;".)"&amp;H15</f>
-        <v>11.)73  12.)63</v>
+        <v>11.)15  12.)58</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4648,14 +4648,14 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>465</v>
+        <v>729</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4663,11 +4663,11 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ref="I16:I23" ca="1" si="5">I15&amp;"  "&amp;A16&amp;".)"&amp;H16</f>
-        <v>11.)73  12.)63  13.)93</v>
+        <v>11.)15  12.)58  13.)81</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4680,14 +4680,14 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>539</v>
+        <v>354</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4695,11 +4695,11 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77</v>
+        <v>11.)15  12.)58  13.)81  14.)59</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4708,18 +4708,18 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4727,11 +4727,11 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4740,18 +4740,18 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -4759,11 +4759,11 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>776</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
@@ -4791,11 +4791,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64  17.)43</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4808,14 +4808,14 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>544</v>
+        <v>238</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4823,11 +4823,11 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64  17.)43  18.)68</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4840,14 +4840,14 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4855,11 +4855,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64  17.)43  18.)68  19.)13</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>7</v>
@@ -4887,11 +4887,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64  17.)43  18.)68  19.)13  20.)17</v>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12  20.)16</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1"/>
@@ -4912,50 +4912,50 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="34" t="str">
+      <c r="A27" s="37" t="str">
         <f ca="1">I13</f>
-        <v>1.)28  2.)60  3.)35  4.)12  5.)61  6.)26  7.)51  8.)87  9.)10  10.)55</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26  10.)11</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34" t="str">
+      <c r="A29" s="37" t="str">
         <f ca="1">I23</f>
-        <v>11.)73  12.)63  13.)93  14.)77  15.)47  16.)64  17.)43  18.)68  19.)13  20.)17</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12  20.)16</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4964,7 +4964,7 @@
     <mergeCell ref="A29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="I14" formula="1"/>
   </ignoredErrors>
@@ -4976,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9593CF-13E0-4786-8DA4-ADF735129A51}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4987,17 +4987,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -5013,12 +5013,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="35">
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -5034,18 +5034,18 @@
       </c>
       <c r="B4" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <f ca="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>8237</v>
+        <v>807</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
         <f ca="1">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -5053,15 +5053,15 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="str">
         <f ca="1">TEXT(C4/E4,"# ""เศษ""???/???")</f>
-        <v xml:space="preserve">358 เศษ  3/23 </v>
+        <v xml:space="preserve">31 เศษ  1/26 </v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".) "&amp;H4</f>
-        <v xml:space="preserve">1.) 358 เศษ  3/23 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26 </v>
       </c>
       <c r="L4" s="32" t="str">
         <f ca="1">H4</f>
-        <v xml:space="preserve">358 เศษ  3/23 </v>
+        <v xml:space="preserve">31 เศษ  1/26 </v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5070,18 +5070,18 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:B23" ca="1" si="0">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>6725</v>
+        <v>475</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E23" ca="1" si="2">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5089,15 +5089,15 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="str">
         <f t="shared" ref="H5:H23" ca="1" si="3">TEXT(C5/E5,"# ""เศษ""???/???")</f>
-        <v xml:space="preserve">67 เศษ 92/99 </v>
+        <v xml:space="preserve">5 เศษ 60/83 </v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".) "&amp;H5</f>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83 </v>
       </c>
       <c r="L5" s="30" t="str">
         <f t="shared" ref="L5:L23" ca="1" si="4">H5</f>
-        <v xml:space="preserve">67 เศษ 92/99 </v>
+        <v xml:space="preserve">5 เศษ 60/83 </v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5110,14 +5110,14 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2129</v>
+        <v>567</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5125,15 +5125,15 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">25 เศษ  4/85 </v>
+        <v xml:space="preserve">6 เศษ 51/86 </v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I23" ca="1" si="5">I5&amp;"  "&amp;A6&amp;".) "&amp;H6</f>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86 </v>
       </c>
       <c r="L6" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">25 เศษ  4/85 </v>
+        <v xml:space="preserve">6 เศษ 51/86 </v>
       </c>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5142,18 +5142,18 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9755</v>
+        <v>767</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5161,15 +5161,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">145 เศษ 40/67 </v>
+        <v xml:space="preserve">59           </v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59           </v>
       </c>
       <c r="L7" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">145 เศษ 40/67 </v>
+        <v xml:space="preserve">59           </v>
       </c>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5178,18 +5178,18 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7463</v>
+        <v>341</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5197,15 +5197,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">196 เศษ 15/38 </v>
+        <v xml:space="preserve">3 เศษ 80/87 </v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87 </v>
       </c>
       <c r="L8" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">196 เศษ 15/38 </v>
+        <v xml:space="preserve">3 เศษ 80/87 </v>
       </c>
     </row>
     <row r="9" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5214,18 +5214,18 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8619</v>
+        <v>861</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5233,15 +5233,15 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">226 เศษ 31/38 </v>
+        <v xml:space="preserve">23 เศษ 11/12 </v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12 </v>
       </c>
       <c r="L9" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">226 เศษ 31/38 </v>
+        <v xml:space="preserve">23 เศษ 11/12 </v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5250,18 +5250,18 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2464</v>
+        <v>419</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5269,15 +5269,15 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">30 เศษ 34/81 </v>
+        <v xml:space="preserve">5 เศษ 54/73 </v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38   7.) 30 เศษ 34/81 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73 </v>
       </c>
       <c r="L10" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">30 เศษ 34/81 </v>
+        <v xml:space="preserve">5 เศษ 54/73 </v>
       </c>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5290,14 +5290,14 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5998</v>
+        <v>270</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5305,15 +5305,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">214 เศษ  3/14 </v>
+        <v xml:space="preserve">19 เศษ  2/7  </v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38   7.) 30 เศษ 34/81   8.) 214 เศษ  3/14 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7  </v>
       </c>
       <c r="L11" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">214 เศษ  3/14 </v>
+        <v xml:space="preserve">19 เศษ  2/7  </v>
       </c>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5322,18 +5322,18 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1656</v>
+        <v>207</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5341,15 +5341,15 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">18 เศษ  9/11 </v>
+        <v xml:space="preserve">2 เศษ 11/98 </v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38   7.) 30 เศษ 34/81   8.) 214 เศษ  3/14   9.) 18 เศษ  9/11 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98 </v>
       </c>
       <c r="L12" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">18 เศษ  9/11 </v>
+        <v xml:space="preserve">2 เศษ 11/98 </v>
       </c>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5358,18 +5358,18 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6839</v>
+        <v>850</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5377,15 +5377,15 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">166 เศษ 33/41 </v>
+        <v xml:space="preserve">65 เศษ  5/13 </v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38   7.) 30 เศษ 34/81   8.) 214 เศษ  3/14   9.) 18 เศษ  9/11   10.) 166 เศษ 33/41 </v>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98   10.) 65 เศษ  5/13 </v>
       </c>
       <c r="L13" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">166 เศษ 33/41 </v>
+        <v xml:space="preserve">65 เศษ  5/13 </v>
       </c>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5398,14 +5398,14 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6344</v>
+        <v>450</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5413,15 +5413,15 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">198 เศษ  1/4  </v>
+        <v xml:space="preserve">6 เศษ 48/67 </v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".) "&amp;H14</f>
-        <v xml:space="preserve">11.) 198 เศษ  1/4  </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67 </v>
       </c>
       <c r="L14" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">198 เศษ  1/4  </v>
+        <v xml:space="preserve">6 เศษ 48/67 </v>
       </c>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5434,14 +5434,14 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1354</v>
+        <v>410</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -5449,15 +5449,15 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">36 เศษ 22/37 </v>
+        <v xml:space="preserve">4 เศษ 21/46 </v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46 </v>
       </c>
       <c r="L15" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">36 เศษ 22/37 </v>
+        <v xml:space="preserve">4 เศษ 21/46 </v>
       </c>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5466,18 +5466,18 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2668</v>
+        <v>441</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -5485,15 +5485,15 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">35 เศษ 43/75 </v>
+        <v xml:space="preserve">11 เศษ 23/38 </v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38 </v>
       </c>
       <c r="L16" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">35 เศษ 43/75 </v>
+        <v xml:space="preserve">11 เศษ 23/38 </v>
       </c>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5502,18 +5502,18 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9659</v>
+        <v>188</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5521,15 +5521,15 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">224 เศษ 27/43 </v>
+        <v xml:space="preserve">2 เศษ  3/22 </v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22 </v>
       </c>
       <c r="L17" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">224 เศษ 27/43 </v>
+        <v xml:space="preserve">2 เศษ  3/22 </v>
       </c>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5542,14 +5542,14 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6965</v>
+        <v>435</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5557,15 +5557,15 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">84 เศษ 77/82 </v>
+        <v xml:space="preserve">14 เศษ  1/31 </v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31 </v>
       </c>
       <c r="L18" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">84 เศษ 77/82 </v>
+        <v xml:space="preserve">14 เศษ  1/31 </v>
       </c>
     </row>
     <row r="19" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5574,18 +5574,18 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4485</v>
+        <v>471</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -5593,15 +5593,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">65           </v>
+        <v xml:space="preserve">13 เศษ 16/35 </v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65           </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35 </v>
       </c>
       <c r="L19" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">65           </v>
+        <v xml:space="preserve">13 เศษ 16/35 </v>
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3191</v>
+        <v>308</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -5629,15 +5629,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">66 เศษ 23/48 </v>
+        <v xml:space="preserve">11 เศษ 11/27 </v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65             17.) 66 เศษ 23/48 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27 </v>
       </c>
       <c r="L20" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">66 เศษ 23/48 </v>
+        <v xml:space="preserve">11 เศษ 11/27 </v>
       </c>
     </row>
     <row r="21" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5650,14 +5650,14 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9704</v>
+        <v>705</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -5665,15 +5665,15 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">134 เศษ  7/9  </v>
+        <v xml:space="preserve">12 เศษ  9/11 </v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65             17.) 66 เศษ 23/48   18.) 134 เศษ  7/9  </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11 </v>
       </c>
       <c r="L21" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">134 เศษ  7/9  </v>
+        <v xml:space="preserve">12 เศษ  9/11 </v>
       </c>
     </row>
     <row r="22" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5682,18 +5682,18 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4668</v>
+        <v>978</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -5701,15 +5701,15 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">48 เศษ 12/97 </v>
+        <v xml:space="preserve">42 เศษ 12/23 </v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65             17.) 66 เศษ 23/48   18.) 134 เศษ  7/9    19.) 48 เศษ 12/97 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23 </v>
       </c>
       <c r="L22" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">48 เศษ 12/97 </v>
+        <v xml:space="preserve">42 เศษ 12/23 </v>
       </c>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5722,14 +5722,14 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7855</v>
+        <v>816</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -5737,15 +5737,15 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">462 เศษ  1/17 </v>
+        <v xml:space="preserve">15 เศษ  1/9  </v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65             17.) 66 เศษ 23/48   18.) 134 เศษ  7/9    19.) 48 เศษ 12/97   20.) 462 เศษ  1/17 </v>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23   20.) 15 เศษ  1/9  </v>
       </c>
       <c r="L23" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">462 เศษ  1/17 </v>
+        <v xml:space="preserve">15 เศษ  1/9  </v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1"/>
@@ -5766,50 +5766,50 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="35" t="str">
+      <c r="A27" s="38" t="str">
         <f ca="1">I13</f>
-        <v xml:space="preserve">1.) 358 เศษ  3/23   2.) 67 เศษ 92/99   3.) 25 เศษ  4/85   4.) 145 เศษ 40/67   5.) 196 เศษ 15/38   6.) 226 เศษ 31/38   7.) 30 เศษ 34/81   8.) 214 เศษ  3/14   9.) 18 เศษ  9/11   10.) 166 เศษ 33/41 </v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98   10.) 65 เศษ  5/13 </v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="35" t="str">
+      <c r="A29" s="38" t="str">
         <f ca="1">I23</f>
-        <v xml:space="preserve">11.) 198 เศษ  1/4    12.) 36 เศษ 22/37   13.) 35 เศษ 43/75   14.) 224 เศษ 27/43   15.) 84 เศษ 77/82   16.) 65             17.) 66 เศษ 23/48   18.) 134 เศษ  7/9    19.) 48 เศษ 12/97   20.) 462 เศษ  1/17 </v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23   20.) 15 เศษ  1/9  </v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5824,7 +5824,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Basic-Math-Quiz-ThepExcel-v2.xlsx
+++ b/Basic-Math-Quiz-ThepExcel-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe179d052201f582/web/math-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{DDD886D9-0E14-4F5A-BD10-DD249D9E8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B6185D-242B-4216-9EAA-DD38835B96BA}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{DDD886D9-0E14-4F5A-BD10-DD249D9E8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D158473A-F54A-49E9-89AA-13C85C3DC5F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{009A7E50-16FE-480A-9779-7429B243D7E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{009A7E50-16FE-480A-9779-7429B243D7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="บวก" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="หารอาจมีเศษ" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">คูณ!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">คูณ!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">คูณแนวนอน!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">บวก!$A$1:$I$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">บวกลบ!$A$1:$I$37</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="24">
   <si>
     <t>=</t>
   </si>
@@ -107,6 +107,21 @@
   <si>
     <t>แบบฝึกหัดการหาร โดย ThepExcel.com V2</t>
   </si>
+  <si>
+    <t>Digit ตัวหาร</t>
+  </si>
+  <si>
+    <t>Digit คำตอบ</t>
+  </si>
+  <si>
+    <t>Digit ตัวตั้ง</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>วันที่ทดสอบ</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +133,7 @@
     <numFmt numFmtId="166" formatCode="#\ ???/???"/>
     <numFmt numFmtId="167" formatCode="#\ &quot;เศษ&quot;\ ???/???"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +207,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -352,6 +375,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3EF020-ABCB-4D70-8B4F-8B2CD05B072D}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -1071,58 +1101,70 @@
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="8">
-        <v>1</v>
-      </c>
-      <c r="L1" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="K1" s="13"/>
+      <c r="L1" s="16">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14">
+      <c r="N1" s="14">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="O1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1"/>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1"/>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>7274</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>5930</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1130,8 +1172,8 @@
         <v>2</v>
       </c>
       <c r="G4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>4850</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>5262</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -1143,16 +1185,16 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>7723</v>
+        <v>6779</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)7723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)6779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.5" customHeight="1">
       <c r="B5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="23"/>
@@ -1162,7 +1204,7 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G5" s="23"/>
@@ -1175,25 +1217,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>5183</v>
+        <v>5371</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)7723  2.)5183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)6779  2.)5371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>449</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B5=2),MIN(C4,10^$N$1),10^$N$1)-1)</f>
+        <v>849</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>333</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F5=2),MIN(G4,10^$N$1),10^$N$1)-1)</f>
+        <v>109</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -1201,14 +1243,14 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>9959</v>
+        <v>6144</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)7723  2.)5183  3.)9959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)6779  2.)5371  3.)6144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.5" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1221,14 +1263,14 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>2152</v>
+        <v>3240</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)7723  2.)5183  3.)9959  4.)2152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>1.)6779  2.)5371  3.)6144  4.)3240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="E8" s="24"/>
@@ -1239,33 +1281,33 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>9370</v>
+        <v>7063</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)7723  2.)5183  3.)9959  4.)2152  5.)9370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
+        <v>1.)6779  2.)5371  3.)6144  4.)3240  5.)7063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" customHeight="1" thickTop="1">
       <c r="J9" s="8">
         <v>6</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>2305</v>
+        <v>8541</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)2305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+        <v>6.)8541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9358</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>5915</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1273,8 +1315,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>1329</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>3098</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -1286,16 +1328,16 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>3550</v>
+        <v>2335</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)2305  7.)3550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)8541  7.)2335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.5" customHeight="1">
       <c r="B11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C11" s="23"/>
@@ -1305,7 +1347,7 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G11" s="23"/>
@@ -1318,25 +1360,25 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>2261</v>
+        <v>3837</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)2305  7.)3550  8.)2261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24.5" customHeight="1">
+        <v>6.)8541  7.)2335  8.)3837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>601</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B11=2),MIN(C10,10^$N$1),10^$N$1)-1)</f>
+        <v>229</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>823</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F11=2),MIN(G10,10^$N$1),10^$N$1)-1)</f>
+        <v>142</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -1344,14 +1386,14 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>9999</v>
+        <v>7923</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)2305  7.)3550  8.)2261  9.)9999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)8541  7.)2335  8.)3837  9.)7923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.5" customHeight="1">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1364,28 +1406,28 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>6184</v>
+        <v>7838</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)2305  7.)3550  8.)2261  9.)9999  10.)6184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>6.)8541  7.)2335  8.)3837  9.)7923  10.)7838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B14" s="22"/>
       <c r="C14" s="26"/>
       <c r="E14" s="24"/>
       <c r="F14" s="22"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" thickTop="1"/>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+    <row r="15" spans="1:15" ht="17" customHeight="1" thickTop="1"/>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>8564</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>6635</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1393,8 +1435,8 @@
         <v>6</v>
       </c>
       <c r="G16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>2037</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>8143</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -1404,7 +1446,7 @@
     </row>
     <row r="17" spans="2:9" ht="12.5" customHeight="1">
       <c r="B17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C17" s="23"/>
@@ -1414,7 +1456,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G17" s="23"/>
@@ -1426,15 +1468,15 @@
     <row r="18" spans="2:9" ht="24.5" customHeight="1">
       <c r="B18" s="22"/>
       <c r="C18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>806</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B17=2),MIN(C16,10^$N$1),10^$N$1)-1)</f>
+        <v>428</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>268</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F17=2),MIN(G16,10^$N$1),10^$N$1)-1)</f>
+        <v>398</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -1460,8 +1502,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>3076</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>1467</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1469,8 +1511,8 @@
         <v>8</v>
       </c>
       <c r="G22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>2157</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>2978</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -1480,7 +1522,7 @@
     </row>
     <row r="23" spans="2:9" ht="12.5" customHeight="1">
       <c r="B23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C23" s="23"/>
@@ -1490,7 +1532,7 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G23" s="23"/>
@@ -1502,15 +1544,15 @@
     <row r="24" spans="2:9" ht="24.5" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>474</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B23=2),MIN(C22,10^$N$1),10^$N$1)-1)</f>
+        <v>868</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>104</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F23=2),MIN(G22,10^$N$1),10^$N$1)-1)</f>
+        <v>859</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -1536,8 +1578,8 @@
         <v>9</v>
       </c>
       <c r="C28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>9085</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>7613</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1545,8 +1587,8 @@
         <v>10</v>
       </c>
       <c r="G28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>5771</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>7438</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -1556,7 +1598,7 @@
     </row>
     <row r="29" spans="2:9" ht="12.5" customHeight="1">
       <c r="B29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C29" s="23"/>
@@ -1566,7 +1608,7 @@
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G29" s="23"/>
@@ -1578,15 +1620,15 @@
     <row r="30" spans="2:9" ht="24.5" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>914</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B29=2),MIN(C28,10^$N$1),10^$N$1)-1)</f>
+        <v>310</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>413</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F29=2),MIN(G28,10^$N$1),10^$N$1)-1)</f>
+        <v>400</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -1623,32 +1665,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="37" t="str">
+      <c r="A35" s="42" t="str">
         <f ca="1">L8</f>
-        <v>1.)7723  2.)5183  3.)9959  4.)2152  5.)9370</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+        <v>1.)6779  2.)5371  3.)6144  4.)3240  5.)7063</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="42" t="str">
         <f ca="1">L13</f>
-        <v>6.)2305  7.)3550  8.)2261  9.)9999  10.)6184</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+        <v>6.)8541  7.)2335  8.)3837  9.)7923  10.)7838</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -1674,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF31B86-64E9-4335-8F19-78C89DF1DAB8}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -1688,55 +1730,66 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="8">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="K1" s="13"/>
+      <c r="L1" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14">
+      <c r="N1" s="14">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="O1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1"/>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1"/>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>934</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>539</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1744,8 +1797,8 @@
         <v>2</v>
       </c>
       <c r="G4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>772</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>219</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -1757,16 +1810,16 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.5" customHeight="1">
       <c r="B5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="C5" s="23"/>
@@ -1776,7 +1829,7 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G5" s="23"/>
@@ -1789,25 +1842,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>426</v>
+        <v>21</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)250  2.)426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)131  2.)21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>684</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B5=2),MIN(C4,10^$N$1),10^$N$1)-1)</f>
+        <v>408</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>346</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F5=2),MIN(G4,10^$N$1),10^$N$1)-1)</f>
+        <v>198</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -1815,14 +1868,14 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)250  2.)426  3.)620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)131  2.)21  3.)685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.5" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -1835,14 +1888,14 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)250  2.)426  3.)620  4.)1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>1.)131  2.)21  3.)685  4.)14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="E8" s="24"/>
@@ -1853,33 +1906,33 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)250  2.)426  3.)620  4.)1  5.)5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
+        <v>1.)131  2.)21  3.)685  4.)14  5.)58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" customHeight="1" thickTop="1">
       <c r="J9" s="8">
         <v>6</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+        <v>6.)222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>893</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>866</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1887,8 +1940,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>107</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>335</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -1900,16 +1953,16 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)295  7.)303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)222  7.)171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.5" customHeight="1">
       <c r="B11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="C11" s="23"/>
@@ -1919,7 +1972,7 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G11" s="23"/>
@@ -1932,25 +1985,25 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)295  7.)303  8.)104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24.5" customHeight="1">
+        <v>6.)222  7.)171  8.)58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>273</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B11=2),MIN(C10,10^$N$1),10^$N$1)-1)</f>
+        <v>181</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>106</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F11=2),MIN(G10,10^$N$1),10^$N$1)-1)</f>
+        <v>321</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -1958,14 +2011,14 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)295  7.)303  8.)104  9.)356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)222  7.)171  8.)58  9.)573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.5" customHeight="1">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -1978,28 +2031,28 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>194</v>
+        <v>469</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)295  7.)303  8.)104  9.)356  10.)194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>6.)222  7.)171  8.)58  9.)573  10.)469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B14" s="22"/>
       <c r="C14" s="26"/>
       <c r="E14" s="24"/>
       <c r="F14" s="22"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" thickTop="1"/>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+    <row r="15" spans="1:15" ht="17" customHeight="1" thickTop="1"/>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>123</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>304</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -2007,8 +2060,8 @@
         <v>6</v>
       </c>
       <c r="G16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>915</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>627</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -2018,7 +2071,7 @@
     </row>
     <row r="17" spans="2:9" ht="12.5" customHeight="1">
       <c r="B17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="C17" s="23"/>
@@ -2028,7 +2081,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G17" s="23"/>
@@ -2040,15 +2093,15 @@
     <row r="18" spans="2:9" ht="24.5" customHeight="1">
       <c r="B18" s="22"/>
       <c r="C18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>118</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B17=2),MIN(C16,10^$N$1),10^$N$1)-1)</f>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>620</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F17=2),MIN(G16,10^$N$1),10^$N$1)-1)</f>
+        <v>405</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2074,8 +2127,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>629</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>879</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2083,8 +2136,8 @@
         <v>8</v>
       </c>
       <c r="G22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>804</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>560</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -2094,7 +2147,7 @@
     </row>
     <row r="23" spans="2:9" ht="12.5" customHeight="1">
       <c r="B23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="C23" s="23"/>
@@ -2104,7 +2157,7 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G23" s="23"/>
@@ -2116,15 +2169,15 @@
     <row r="24" spans="2:9" ht="24.5" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>326</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B23=2),MIN(C22,10^$N$1),10^$N$1)-1)</f>
+        <v>708</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>700</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F23=2),MIN(G22,10^$N$1),10^$N$1)-1)</f>
+        <v>502</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2150,8 +2203,8 @@
         <v>9</v>
       </c>
       <c r="C28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>563</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>872</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2159,8 +2212,8 @@
         <v>10</v>
       </c>
       <c r="G28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>509</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>724</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -2170,7 +2223,7 @@
     </row>
     <row r="29" spans="2:9" ht="12.5" customHeight="1">
       <c r="B29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="C29" s="23"/>
@@ -2180,7 +2233,7 @@
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G29" s="23"/>
@@ -2192,15 +2245,15 @@
     <row r="30" spans="2:9" ht="24.5" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>207</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B29=2),MIN(C28,10^$N$1),10^$N$1)-1)</f>
+        <v>299</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>315</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F29=2),MIN(G28,10^$N$1),10^$N$1)-1)</f>
+        <v>255</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2237,32 +2290,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="37" t="str">
+      <c r="A35" s="42" t="str">
         <f ca="1">L8</f>
-        <v>1.)250  2.)426  3.)620  4.)1  5.)5</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+        <v>1.)131  2.)21  3.)685  4.)14  5.)58</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="42" t="str">
         <f ca="1">L13</f>
-        <v>6.)295  7.)303  8.)104  9.)356  10.)194</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+        <v>6.)222  7.)171  8.)58  9.)573  10.)469</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -2288,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AFF34-18E9-44B7-8A61-B8F7E4DC1816}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -2302,55 +2355,66 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="8">
-        <v>1</v>
-      </c>
-      <c r="L1" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="K1" s="13"/>
+      <c r="L1" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14">
+      <c r="N1" s="14">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="O1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1"/>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1"/>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>130</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>601</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2358,8 +2422,8 @@
         <v>2</v>
       </c>
       <c r="G4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>171</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>138</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
@@ -2371,16 +2435,16 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">C4+CHOOSE(B5,C6,C6*-1)</f>
-        <v>707</v>
+        <v>1183</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)1183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.5" customHeight="1">
       <c r="B5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="23"/>
@@ -2390,7 +2454,7 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G5" s="23"/>
@@ -2403,25 +2467,25 @@
       </c>
       <c r="K5" s="28">
         <f ca="1">G4+CHOOSE(F5,G6,G6*-1)</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)707  2.)19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)1183  2.)6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>577</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B5=2),MIN(C4,10^$N$1),10^$N$1)-1)</f>
+        <v>582</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>152</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F5=2),MIN(G4,10^$N$1),10^$N$1)-1)</f>
+        <v>132</v>
       </c>
       <c r="H6" s="24"/>
       <c r="J6" s="8">
@@ -2429,14 +2493,14 @@
       </c>
       <c r="K6" s="28">
         <f ca="1">C10+CHOOSE(B11,C12,C12*-1)</f>
-        <v>426</v>
+        <v>811</v>
       </c>
       <c r="L6" s="8" t="str">
         <f t="shared" ref="L6:L13" ca="1" si="0">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)707  2.)19  3.)426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)1183  2.)6  3.)811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.5" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -2449,14 +2513,14 @@
       </c>
       <c r="K7" s="28">
         <f ca="1">G10+CHOOSE(F11,G12,G12*-1)</f>
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)707  2.)19  3.)426  4.)254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>1.)1183  2.)6  3.)811  4.)240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="E8" s="24"/>
@@ -2467,33 +2531,33 @@
       </c>
       <c r="K8" s="28">
         <f ca="1">C16+CHOOSE(B17,C18,C18*-1)</f>
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)707  2.)19  3.)426  4.)254  5.)631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" thickTop="1">
+        <v>1.)1183  2.)6  3.)811  4.)240  5.)609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" customHeight="1" thickTop="1">
       <c r="J9" s="8">
         <v>6</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">G16+CHOOSE(F17,G18,G18*-1)</f>
-        <v>344</v>
+        <v>1355</v>
       </c>
       <c r="L9" s="8" t="str">
         <f ca="1">J9&amp;".)"&amp;K9</f>
-        <v>6.)344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+        <v>6.)1355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>798</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>618</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -2501,8 +2565,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>617</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>474</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="8" t="str">
@@ -2514,26 +2578,26 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">C22+CHOOSE(B23,C24,C24*-1)</f>
-        <v>889</v>
+        <v>651</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)344  7.)889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)1355  7.)651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.5" customHeight="1">
       <c r="B11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
+        <v>1</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="27" t="str">
         <f ca="1">CHOOSE(B11,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G11" s="23"/>
@@ -2546,25 +2610,25 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">G22+CHOOSE(F23,G24,G24*-1)</f>
-        <v>1162</v>
+        <v>1218</v>
       </c>
       <c r="L11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)344  7.)889  8.)1162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24.5" customHeight="1">
+        <v>6.)1355  7.)651  8.)1218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.5" customHeight="1">
       <c r="B12" s="22"/>
       <c r="C12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B11=2),MIN(C10,10^$F$2),10^$F$2)-1)</f>
-        <v>372</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B11=2),MIN(C10,10^$N$1),10^$N$1)-1)</f>
+        <v>193</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F11=2),MIN(G10,10^$F$2),10^$F$2)-1)</f>
-        <v>363</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F11=2),MIN(G10,10^$N$1),10^$N$1)-1)</f>
+        <v>234</v>
       </c>
       <c r="H12" s="24"/>
       <c r="J12" s="8">
@@ -2572,14 +2636,14 @@
       </c>
       <c r="K12" s="28">
         <f ca="1">C28+CHOOSE(B29,C30,C30*-1)</f>
-        <v>947</v>
+        <v>659</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)344  7.)889  8.)1162  9.)947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.5" customHeight="1">
+        <v>6.)1355  7.)651  8.)1218  9.)659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.5" customHeight="1">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
@@ -2592,28 +2656,28 @@
       </c>
       <c r="K13" s="28">
         <f ca="1">G28+CHOOSE(F29,G30,G30*-1)</f>
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6.)344  7.)889  8.)1162  9.)947  10.)39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>6.)1355  7.)651  8.)1218  9.)659  10.)91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B14" s="22"/>
       <c r="C14" s="26"/>
       <c r="E14" s="24"/>
       <c r="F14" s="22"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="17" customHeight="1" thickTop="1"/>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+    <row r="15" spans="1:15" ht="17" customHeight="1" thickTop="1"/>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>120</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>852</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -2621,8 +2685,8 @@
         <v>6</v>
       </c>
       <c r="G16" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>697</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>702</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="8" t="str">
@@ -2632,37 +2696,37 @@
     </row>
     <row r="17" spans="2:9" ht="12.5" customHeight="1">
       <c r="B17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
+        <v>2</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27" t="str">
         <f ca="1">CHOOSE(B17,"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
+        <v>1</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="27" t="str">
         <f ca="1">CHOOSE(F17,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="24.5" customHeight="1">
       <c r="B18" s="22"/>
       <c r="C18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B17=2),MIN(C16,10^$F$2),10^$F$2)-1)</f>
-        <v>511</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B17=2),MIN(C16,10^$N$1),10^$N$1)-1)</f>
+        <v>243</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F17=2),MIN(G16,10^$F$2),10^$F$2)-1)</f>
-        <v>353</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F17=2),MIN(G16,10^$N$1),10^$N$1)-1)</f>
+        <v>653</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -2688,8 +2752,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>505</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>109</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2697,8 +2761,8 @@
         <v>8</v>
       </c>
       <c r="G22" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>427</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>806</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="8" t="str">
@@ -2708,7 +2772,7 @@
     </row>
     <row r="23" spans="2:9" ht="12.5" customHeight="1">
       <c r="B23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C23" s="23"/>
@@ -2718,7 +2782,7 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="G23" s="23"/>
@@ -2730,15 +2794,15 @@
     <row r="24" spans="2:9" ht="24.5" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B23=2),MIN(C22,10^$F$2),10^$F$2)-1)</f>
-        <v>384</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B23=2),MIN(C22,10^$N$1),10^$N$1)-1)</f>
+        <v>542</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="22"/>
       <c r="G24" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F23=2),MIN(G22,10^$F$2),10^$F$2)-1)</f>
-        <v>735</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F23=2),MIN(G22,10^$N$1),10^$N$1)-1)</f>
+        <v>412</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -2764,8 +2828,8 @@
         <v>9</v>
       </c>
       <c r="C28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>594</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>262</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2773,8 +2837,8 @@
         <v>10</v>
       </c>
       <c r="G28" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>212</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>327</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="8" t="str">
@@ -2784,7 +2848,7 @@
     </row>
     <row r="29" spans="2:9" ht="12.5" customHeight="1">
       <c r="B29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>1</v>
       </c>
       <c r="C29" s="23"/>
@@ -2794,7 +2858,7 @@
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
+        <f ca="1">RANDBETWEEN($M$2,$N$2)</f>
         <v>2</v>
       </c>
       <c r="G29" s="23"/>
@@ -2806,15 +2870,15 @@
     <row r="30" spans="2:9" ht="24.5" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B29=2),MIN(C28,10^$F$2),10^$F$2)-1)</f>
-        <v>353</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B29=2),MIN(C28,10^$N$1),10^$N$1)-1)</f>
+        <v>397</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F29=2),MIN(G28,10^$F$2),10^$F$2)-1)</f>
-        <v>173</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F29=2),MIN(G28,10^$N$1),10^$N$1)-1)</f>
+        <v>236</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -2851,32 +2915,32 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="14.5" customHeight="1">
-      <c r="A35" s="37" t="str">
+      <c r="A35" s="42" t="str">
         <f ca="1">L8</f>
-        <v>1.)707  2.)19  3.)426  4.)254  5.)631</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+        <v>1.)1183  2.)6  3.)811  4.)240  5.)609</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="14.5">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="42" t="str">
         <f ca="1">L13</f>
-        <v>6.)344  7.)889  8.)1162  9.)947  10.)39</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+        <v>6.)1355  7.)651  8.)1218  9.)659  10.)91</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="1:9" ht="5.5" customHeight="1">
       <c r="A37" s="29"/>
@@ -2902,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AD2D34-D23D-4998-A5D6-C8614D4A272A}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5"/>
@@ -2916,55 +2980,63 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="8">
-        <v>1</v>
-      </c>
-      <c r="L1" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16">
+      <c r="K1" s="13"/>
+      <c r="L1" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="34">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="N1" s="34">
+        <v>2</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" customHeight="1"/>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+      <c r="N2" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1"/>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>403</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>382</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2973,83 +3045,77 @@
         <v>2</v>
       </c>
       <c r="G4" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>507</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>865</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="8" t="str">
         <f>B4&amp;".)"&amp;H4</f>
         <v>1.)</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="36">
         <f ca="1">C4*C6</f>
-        <v>9269</v>
+        <v>8022</v>
       </c>
       <c r="L4" s="8" t="str">
         <f ca="1">J4&amp;".)"&amp;K4</f>
-        <v>1.)9269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.5" customHeight="1">
-      <c r="B5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+        <v>1.)8022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.5" customHeight="1">
+      <c r="B5" s="4"/>
       <c r="C5" s="23"/>
       <c r="D5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="23"/>
       <c r="H5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="33">
-        <v>2</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="36">
         <f ca="1">G4*G6</f>
-        <v>42588</v>
+        <v>31140</v>
       </c>
       <c r="L5" s="8" t="str">
         <f ca="1">L4&amp;"  "&amp;J5&amp;".)"&amp;K5</f>
-        <v>1.)9269  2.)42588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)8022  2.)31140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.5" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B5=2),MIN(C4,10^$F$2),10^$F$2)-1)</f>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B5=2),MIN(C4,10^$N$1),10^$N$1)-1)</f>
+        <v>21</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="22"/>
       <c r="G6" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F5=2),MIN(G4,10^$F$2),10^$F$2)-1)</f>
-        <v>84</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F5=2),MIN(G4,10^$N$1),10^$N$1)-1)</f>
+        <v>36</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="J6" s="33">
+      <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="36">
         <f ca="1">C12*C14</f>
-        <v>12432</v>
+        <v>42952</v>
       </c>
       <c r="L6" s="8" t="str">
         <f ca="1">L5&amp;"  "&amp;J6&amp;".)"&amp;K6</f>
-        <v>1.)9269  2.)42588  3.)12432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.5" customHeight="1">
+        <v>1.)8022  2.)31140  3.)42952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.5" customHeight="1">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
@@ -3057,19 +3123,19 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="J7" s="33">
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="36">
         <f ca="1">G12*G14</f>
-        <v>7181</v>
+        <v>22359</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" ref="L7:L9" ca="1" si="0">L6&amp;"  "&amp;J7&amp;".)"&amp;K7</f>
-        <v>1.)9269  2.)42588  3.)12432  4.)7181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)8022  2.)31140  3.)42952  4.)22359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.5" customHeight="1">
       <c r="B8" s="22"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
@@ -3077,19 +3143,19 @@
       <c r="F8" s="22"/>
       <c r="G8" s="25"/>
       <c r="H8" s="24"/>
-      <c r="J8" s="33">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="36">
         <f ca="1">C20*C22</f>
-        <v>22816</v>
+        <v>4725</v>
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.5" customHeight="1">
+        <v>1.)8022  2.)31140  3.)42952  4.)22359  5.)4725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.5" customHeight="1">
       <c r="B9" s="22"/>
       <c r="C9" s="25"/>
       <c r="D9" s="24"/>
@@ -3097,19 +3163,19 @@
       <c r="F9" s="22"/>
       <c r="G9" s="25"/>
       <c r="H9" s="24"/>
-      <c r="J9" s="33">
+      <c r="J9" s="8">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="36">
         <f ca="1">G20*G22</f>
-        <v>14601</v>
+        <v>36064</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816  6.)14601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+        <v>1.)8022  2.)31140  3.)42952  4.)22359  5.)4725  6.)36064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.5" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
       <c r="C10" s="26"/>
       <c r="E10" s="24"/>
@@ -3119,19 +3185,19 @@
       <c r="K10" s="28"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="17" customHeight="1" thickTop="1">
+    <row r="11" spans="1:15" ht="17" customHeight="1" thickTop="1">
       <c r="J11" s="33"/>
       <c r="K11" s="28"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B12" s="19">
         <f>B4+2</f>
         <v>3</v>
       </c>
       <c r="C12" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>592</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>826</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3140,8 +3206,8 @@
         <v>4</v>
       </c>
       <c r="G12" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>167</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>771</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="8" t="str">
@@ -3152,20 +3218,14 @@
       <c r="K12" s="28"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="12.5" customHeight="1">
-      <c r="B13" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:15" ht="12.5" customHeight="1">
+      <c r="B13" s="4"/>
       <c r="C13" s="23"/>
       <c r="D13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="23"/>
       <c r="H13" s="27" t="s">
         <v>6</v>
@@ -3174,25 +3234,25 @@
       <c r="K13" s="28"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="24.5" customHeight="1">
+    <row r="14" spans="1:15" ht="24.5" customHeight="1">
       <c r="B14" s="22"/>
       <c r="C14" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B13=2),MIN(C12,10^$F$2),10^$F$2)-1)</f>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B13=2),MIN(C12,10^$N$1),10^$N$1)-1)</f>
+        <v>52</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="22"/>
       <c r="G14" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F13=2),MIN(G12,10^$F$2),10^$F$2)-1)</f>
-        <v>43</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F13=2),MIN(G12,10^$N$1),10^$N$1)-1)</f>
+        <v>29</v>
       </c>
       <c r="H14" s="24"/>
       <c r="J14" s="33"/>
       <c r="K14" s="28"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="12.5" customHeight="1">
+    <row r="15" spans="1:15" ht="12.5" customHeight="1">
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
@@ -3204,7 +3264,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="24.5" customHeight="1">
+    <row r="16" spans="1:15" ht="24.5" customHeight="1">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="24"/>
@@ -3216,7 +3276,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="24.5" customHeight="1">
+    <row r="17" spans="2:12" ht="24.5" customHeight="1">
       <c r="B17" s="22"/>
       <c r="C17" s="25"/>
       <c r="D17" s="24"/>
@@ -3228,7 +3288,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="24.5" customHeight="1" thickBot="1">
       <c r="B18" s="22"/>
       <c r="C18" s="26"/>
       <c r="E18" s="24"/>
@@ -3238,19 +3298,19 @@
       <c r="K18" s="28"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="17" customHeight="1" thickTop="1">
+    <row r="19" spans="2:12" ht="17" customHeight="1" thickTop="1">
       <c r="J19" s="33"/>
       <c r="K19" s="28"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="24.5" customHeight="1">
+    <row r="20" spans="2:12" s="9" customFormat="1" ht="24.5" customHeight="1">
       <c r="B20" s="19">
         <f>B12+2</f>
         <v>5</v>
       </c>
       <c r="C20" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>368</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>135</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -3259,8 +3319,8 @@
         <v>6</v>
       </c>
       <c r="G20" s="20">
-        <f ca="1">RANDBETWEEN(10^($D$2-1),10^$D$2-1)</f>
-        <v>471</v>
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>644</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="8" t="str">
@@ -3271,20 +3331,14 @@
       <c r="K20" s="28"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="12.5" customHeight="1">
-      <c r="B21" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+    <row r="21" spans="2:12" ht="12.5" customHeight="1">
+      <c r="B21" s="4"/>
       <c r="C21" s="23"/>
       <c r="D21" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="24"/>
-      <c r="F21" s="4">
-        <f ca="1">RANDBETWEEN($K$1,$L$1)</f>
-        <v>1</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="23"/>
       <c r="H21" s="27" t="s">
         <v>6</v>
@@ -3293,25 +3347,25 @@
       <c r="K21" s="28"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="24.5" customHeight="1">
+    <row r="22" spans="2:12" ht="24.5" customHeight="1">
       <c r="B22" s="22"/>
       <c r="C22" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,B21=2),MIN(C20,10^$F$2),10^$F$2)-1)</f>
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,B21=2),MIN(C20,10^$N$1),10^$N$1)-1)</f>
+        <v>35</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="22"/>
       <c r="G22" s="25">
-        <f ca="1">RANDBETWEEN(10^($F$2-1),IF(AND($D$2=$F$2,F21=2),MIN(G20,10^$F$2),10^$F$2)-1)</f>
-        <v>31</v>
+        <f ca="1">RANDBETWEEN(10^($N$1-1),IF(AND($L$1=$N$1,F21=2),MIN(G20,10^$N$1),10^$N$1)-1)</f>
+        <v>56</v>
       </c>
       <c r="H22" s="24"/>
       <c r="J22" s="33"/>
       <c r="K22" s="28"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="12.5" customHeight="1">
+    <row r="23" spans="2:12" ht="12.5" customHeight="1">
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
@@ -3323,7 +3377,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="24.5" customHeight="1">
+    <row r="24" spans="2:12" ht="24.5" customHeight="1">
       <c r="B24" s="22"/>
       <c r="C24" s="25"/>
       <c r="D24" s="24"/>
@@ -3335,7 +3389,7 @@
       <c r="K24" s="28"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="24.5" customHeight="1">
+    <row r="25" spans="2:12" ht="24.5" customHeight="1">
       <c r="B25" s="22"/>
       <c r="C25" s="25"/>
       <c r="D25" s="24"/>
@@ -3347,7 +3401,7 @@
       <c r="K25" s="28"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="24.5" customHeight="1" thickBot="1">
+    <row r="26" spans="2:12" ht="24.5" customHeight="1" thickBot="1">
       <c r="B26" s="22"/>
       <c r="C26" s="26"/>
       <c r="E26" s="24"/>
@@ -3357,70 +3411,80 @@
       <c r="K26" s="28"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1" thickTop="1">
+    <row r="27" spans="2:12" ht="17" customHeight="1" thickTop="1">
       <c r="J27" s="33"/>
       <c r="K27" s="28"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="8.5" customHeight="1" thickBot="1">
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="2:12" ht="17" customHeight="1">
+      <c r="J28" s="33"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="17" customHeight="1">
+      <c r="J29" s="33"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="17" customHeight="1">
+      <c r="J30" s="33"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="2:12" ht="17" customHeight="1">
+      <c r="J31" s="33"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" ht="17" customHeight="1" thickBot="1">
+      <c r="J32" s="33"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A30" s="37" t="str">
+      <c r="B33" s="10"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" customHeight="1">
+      <c r="A34" s="42" t="str">
         <f ca="1">L9</f>
-        <v>1.)9269  2.)42588  3.)12432  4.)7181  5.)22816  6.)14601</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-    </row>
-    <row r="32" spans="1:12" ht="5.5" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+        <v>1.)8022  2.)31140  3.)42952  4.)22359  5.)4725  6.)36064</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:9" ht="5.5" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A34:I34"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="กรอกได้แค่เลข 1-2" sqref="F2" xr:uid="{C2D65966-41FE-4CE1-9CF3-163585B7DD6B}">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="กรอกได้แค่เลข 1-2" sqref="N1" xr:uid="{C2D65966-41FE-4CE1-9CF3-163585B7DD6B}">
       <formula1>1</formula1>
       <formula2>2</formula2>
     </dataValidation>
@@ -3433,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651BB6CB-1127-4F94-8CB6-7675B41FD188}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3444,95 +3508,112 @@
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:15">
       <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f ca="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>31</v>
+        <f t="shared" ref="C4:C23" ca="1" si="0">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5">
-        <f ca="1">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>80</v>
+        <f t="shared" ref="E4:E23" ca="1" si="1">RANDBETWEEN(10^($N$1-1),10^$N$1-1)</f>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>15</v>
+      </c>
       <c r="H4" s="8">
         <f ca="1">C4*E4</f>
-        <v>2480</v>
+        <v>3468</v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".)"&amp;H4</f>
-        <v>1.)2480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B23" ca="1" si="0">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <f t="shared" ref="B5:B23" ca="1" si="2">RANDBETWEEN(1,2)</f>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E23" ca="1" si="2">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3540,31 +3621,31 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8">
         <f t="shared" ref="H5:H23" ca="1" si="3">C5*E5</f>
-        <v>5185</v>
+        <v>2736</v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".)"&amp;H5</f>
-        <v>1.)2480  2.)5185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3572,31 +3653,31 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1089</v>
+        <v>1800</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I13" ca="1" si="4">I5&amp;"  "&amp;A6&amp;".)"&amp;H6</f>
-        <v>1.)2480  2.)5185  3.)1089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3604,31 +3685,31 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2185</v>
+        <v>476</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3636,31 +3717,31 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7176</v>
+        <v>3950</v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3668,31 +3749,31 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5544</v>
+        <v>2380</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3700,31 +3781,31 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3763</v>
+        <v>3190</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380  7.)3190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3732,31 +3813,31 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1850</v>
+        <v>5390</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380  7.)3190  8.)5390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3764,31 +3845,31 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6300</v>
+        <v>4641</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380  7.)3190  8.)5390  9.)4641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3796,31 +3877,31 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5925</v>
+        <v>858</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300  10.)5925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380  7.)3190  8.)5390  9.)4641  10.)858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3828,31 +3909,31 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4428</v>
+        <v>780</v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".)"&amp;H14</f>
-        <v>11.)4428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>11.)780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3860,31 +3941,31 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1320</v>
+        <v>2470</v>
       </c>
       <c r="I15" s="8" t="str">
         <f ca="1">I14&amp;"  "&amp;A15&amp;".)"&amp;H15</f>
-        <v>11.)4428  12.)1320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>11.)780  12.)2470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3892,11 +3973,11 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5180</v>
+        <v>570</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ref="I16:I23" ca="1" si="5">I15&amp;"  "&amp;A16&amp;".)"&amp;H16</f>
-        <v>11.)4428  12.)1320  13.)5180</v>
+        <v>11.)780  12.)2470  13.)570</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3904,19 +3985,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3924,11 +4005,11 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1740</v>
+        <v>3496</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3936,19 +4017,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3956,11 +4037,11 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594</v>
+        <v>2242</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -3968,19 +4049,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -3988,11 +4069,11 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>8084</v>
+        <v>4047</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4000,19 +4081,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -4020,11 +4101,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3384</v>
+        <v>812</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047  17.)812</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4032,19 +4113,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4052,11 +4133,11 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>2552</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047  17.)812  18.)2552</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4064,19 +4145,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4084,11 +4165,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3984</v>
+        <v>5394</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047  17.)812  18.)2552  19.)5394</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4096,19 +4177,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -4116,11 +4197,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2736</v>
+        <v>3024</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984  20.)2736</v>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047  17.)812  18.)2552  19.)5394  20.)3024</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1"/>
@@ -4141,50 +4222,50 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="37" t="str">
+      <c r="A27" s="42" t="str">
         <f ca="1">I13</f>
-        <v>1.)2480  2.)5185  3.)1089  4.)2185  5.)7176  6.)5544  7.)3763  8.)1850  9.)6300  10.)5925</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+        <v>1.)3468  2.)2736  3.)1800  4.)476  5.)3950  6.)2380  7.)3190  8.)5390  9.)4641  10.)858</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37" t="str">
+      <c r="A29" s="42" t="str">
         <f ca="1">I23</f>
-        <v>11.)4428  12.)1320  13.)5180  14.)1740  15.)594  16.)8084  17.)3384  18.)130  19.)3984  20.)2736</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+        <v>11.)780  12.)2470  13.)570  14.)3496  15.)2242  16.)4047  17.)812  18.)2552  19.)5394  20.)3024</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4204,106 +4285,125 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AF090A-9B26-49E4-A4DD-6057647B0DAA}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:15">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f ca="1">RANDBETWEEN(10^($G$3-1),10^$G$3-1)*E4</f>
-        <v>24</v>
+        <f t="shared" ref="C4:C23" ca="1" si="0">RANDBETWEEN(10^($N$1-1),10^$N$1-1)*E4</f>
+        <v>693</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
-        <f ca="1">RANDBETWEEN(MAX(10^($E$3-1),2),10^$E$3-1)</f>
-        <v>2</v>
+        <f t="shared" ref="E4:E23" ca="1" si="1">RANDBETWEEN(MAX(10^($L$1-1),2),10^$L$1-1)</f>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>6</v>
+      </c>
       <c r="H4" s="8">
         <f ca="1">C4/E4</f>
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".)"&amp;H4</f>
-        <v>1.)12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B23" ca="1" si="0">RANDBETWEEN(1,2)</f>
+        <f t="shared" ref="B5:B23" ca="1" si="2">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($G$3-1),10^$G$3-1)*E5</f>
-        <v>215</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>267</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E23" ca="1" si="2">RANDBETWEEN(MAX(10^($E$3-1),2),10^$E$3-1)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4311,31 +4411,31 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8">
         <f t="shared" ref="H5:H23" ca="1" si="3">C5/E5</f>
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".)"&amp;H5</f>
-        <v>1.)12  2.)43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>189</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4343,31 +4443,31 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I13" ca="1" si="4">I5&amp;"  "&amp;A6&amp;".)"&amp;H6</f>
-        <v>1.)12  2.)43  3.)96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>675</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>260</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4375,30 +4475,30 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>364</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>380</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -4407,31 +4507,31 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>270</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4439,31 +4539,31 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>252</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4471,31 +4571,31 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30  7.)63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>296</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4503,31 +4603,31 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30  7.)63  8.)19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>135</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4535,31 +4635,31 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30  7.)63  8.)19  9.)15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4567,31 +4667,31 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26  10.)11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30  7.)63  8.)19  9.)15  10.)35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>460</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4599,31 +4699,31 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".)"&amp;H14</f>
-        <v>11.)15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>11.)92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>292</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4631,31 +4731,31 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I15" s="8" t="str">
         <f ca="1">I14&amp;"  "&amp;A15&amp;".)"&amp;H15</f>
-        <v>11.)15  12.)58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v>11.)92  12.)73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>294</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4663,11 +4763,11 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ref="I16:I23" ca="1" si="5">I15&amp;"  "&amp;A16&amp;".)"&amp;H16</f>
-        <v>11.)15  12.)58  13.)81</v>
+        <v>11.)92  12.)73  13.)98</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4675,19 +4775,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>354</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4695,11 +4795,11 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59</v>
+        <v>11.)92  12.)73  13.)98  14.)18</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4707,19 +4807,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4727,11 +4827,11 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4739,19 +4839,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -4759,11 +4859,11 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4771,19 +4871,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>776</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -4791,11 +4891,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66  17.)14</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4803,19 +4903,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>176</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -4823,11 +4923,11 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66  17.)14  18.)88</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4835,19 +4935,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>212</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -4855,11 +4955,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66  17.)14  18.)88  19.)53</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -4867,19 +4967,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -4887,11 +4987,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12  20.)16</v>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66  17.)14  18.)88  19.)53  20.)22</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1"/>
@@ -4912,50 +5012,50 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="37" t="str">
+      <c r="A27" s="42" t="str">
         <f ca="1">I13</f>
-        <v>1.)12  2.)43  3.)96  4.)75  5.)91  6.)63  7.)22  8.)37  9.)26  10.)11</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+        <v>1.)99  2.)89  3.)63  4.)65  5.)95  6.)30  7.)63  8.)19  9.)15  10.)35</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37" t="str">
+      <c r="A29" s="42" t="str">
         <f ca="1">I23</f>
-        <v>11.)15  12.)58  13.)81  14.)59  15.)80  16.)21  17.)97  18.)34  19.)12  20.)16</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+        <v>11.)92  12.)73  13.)98  14.)18  15.)16  16.)66  17.)14  18.)88  19.)53  20.)22</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4974,114 +5074,132 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9593CF-13E0-4786-8DA4-ADF735129A51}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="23.5">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="E2" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="35">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="35">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
+      <c r="N2" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f ca="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>807</v>
+        <f t="shared" ref="C4:C23" ca="1" si="0">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>791</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
-        <f ca="1">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>26</v>
+        <f t="shared" ref="E4:E23" ca="1" si="1">RANDBETWEEN(10^($N$1-1),10^$N$1-1)</f>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <f ca="1">RANDBETWEEN(10^($L$1-1),10^$L$1-1)</f>
+        <v>620</v>
+      </c>
       <c r="H4" s="8" t="str">
         <f ca="1">TEXT(C4/E4,"# ""เศษ""???/???")</f>
-        <v xml:space="preserve">31 เศษ  1/26 </v>
+        <v xml:space="preserve">29 เศษ  8/27 </v>
       </c>
       <c r="I4" s="8" t="str">
         <f ca="1">A4&amp;".) "&amp;H4</f>
-        <v xml:space="preserve">1.) 31 เศษ  1/26 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27 </v>
       </c>
       <c r="L4" s="32" t="str">
         <f ca="1">H4</f>
-        <v xml:space="preserve">31 เศษ  1/26 </v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">29 เศษ  8/27 </v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B23" ca="1" si="0">RANDBETWEEN(1,2)</f>
+        <f t="shared" ref="B5:B23" ca="1" si="2">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C23" ca="1" si="1">RANDBETWEEN(10^($C$3-1),10^$C$3-1)</f>
-        <v>475</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>617</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E23" ca="1" si="2">RANDBETWEEN(10^($E$3-1),10^$E$3-1)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5089,35 +5207,35 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="str">
         <f t="shared" ref="H5:H23" ca="1" si="3">TEXT(C5/E5,"# ""เศษ""???/???")</f>
-        <v xml:space="preserve">5 เศษ 60/83 </v>
+        <v xml:space="preserve">7 เศษ 29/84 </v>
       </c>
       <c r="I5" s="8" t="str">
         <f ca="1">I4&amp;"  "&amp;A5&amp;".) "&amp;H5</f>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84 </v>
       </c>
       <c r="L5" s="30" t="str">
         <f t="shared" ref="L5:L23" ca="1" si="4">H5</f>
-        <v xml:space="preserve">5 เศษ 60/83 </v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">7 เศษ 29/84 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>567</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>146</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5125,35 +5243,35 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">6 เศษ 51/86 </v>
+        <v xml:space="preserve">5 เศษ  8/13 </v>
       </c>
       <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I23" ca="1" si="5">I5&amp;"  "&amp;A6&amp;".) "&amp;H6</f>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13 </v>
       </c>
       <c r="L6" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">6 เศษ 51/86 </v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">5 เศษ  8/13 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>767</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5161,35 +5279,35 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">59           </v>
+        <v xml:space="preserve">1 เศษ 43/68 </v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59           </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68 </v>
       </c>
       <c r="L7" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">59           </v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">1 เศษ 43/68 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>341</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>281</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5197,35 +5315,35 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">3 เศษ 80/87 </v>
+        <v xml:space="preserve">4 เศษ 21/65 </v>
       </c>
       <c r="I8" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65 </v>
       </c>
       <c r="L8" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">3 เศษ 80/87 </v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">4 เศษ 21/65 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>861</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>822</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5233,35 +5351,35 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">23 เศษ 11/12 </v>
+        <v xml:space="preserve">13 เศษ 29/61 </v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61 </v>
       </c>
       <c r="L9" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">23 เศษ 11/12 </v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">13 เศษ 29/61 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>892</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5269,35 +5387,35 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">5 เศษ 54/73 </v>
+        <v xml:space="preserve">20 เศษ  3/11 </v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61   7.) 20 เศษ  3/11 </v>
       </c>
       <c r="L10" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">5 เศษ 54/73 </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">20 เศษ  3/11 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>926</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5305,35 +5423,35 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">19 เศษ  2/7  </v>
+        <v xml:space="preserve">51 เศษ  4/9  </v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7  </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61   7.) 20 เศษ  3/11   8.) 51 เศษ  4/9  </v>
       </c>
       <c r="L11" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">19 เศษ  2/7  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">51 เศษ  4/9  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>355</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5341,35 +5459,35 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">2 เศษ 11/98 </v>
+        <v xml:space="preserve">23 เศษ  2/3  </v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61   7.) 20 เศษ  3/11   8.) 51 เศษ  4/9    9.) 23 เศษ  2/3  </v>
       </c>
       <c r="L12" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">2 เศษ 11/98 </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">23 เศษ  2/3  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>850</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>326</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5377,35 +5495,35 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">65 เศษ  5/13 </v>
+        <v xml:space="preserve">4 เศษ  7/39 </v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98   10.) 65 เศษ  5/13 </v>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61   7.) 20 เศษ  3/11   8.) 51 เศษ  4/9    9.) 23 เศษ  2/3    10.) 4 เศษ  7/39 </v>
       </c>
       <c r="L13" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">65 เศษ  5/13 </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">4 เศษ  7/39 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>201</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5413,35 +5531,35 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">6 เศษ 48/67 </v>
+        <v xml:space="preserve">6 เศษ  7/10 </v>
       </c>
       <c r="I14" s="8" t="str">
         <f ca="1">A14&amp;".) "&amp;H14</f>
-        <v xml:space="preserve">11.) 6 เศษ 48/67 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10 </v>
       </c>
       <c r="L14" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">6 เศษ 48/67 </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">6 เศษ  7/10 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>410</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>113</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -5449,35 +5567,35 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">4 เศษ 21/46 </v>
+        <v xml:space="preserve">7 เศษ  8/15 </v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15 </v>
       </c>
       <c r="L15" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">4 เศษ 21/46 </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
+        <v xml:space="preserve">7 เศษ  8/15 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>441</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>349</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -5485,15 +5603,15 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">11 เศษ 23/38 </v>
+        <v xml:space="preserve">9 เศษ 34/35 </v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35 </v>
       </c>
       <c r="L16" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11 เศษ 23/38 </v>
+        <v xml:space="preserve">9 เศษ 34/35 </v>
       </c>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5501,19 +5619,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>232</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5521,15 +5639,15 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">2 เศษ  3/22 </v>
+        <v xml:space="preserve">5 เศษ 27/41 </v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41 </v>
       </c>
       <c r="L17" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">2 เศษ  3/22 </v>
+        <v xml:space="preserve">5 เศษ 27/41 </v>
       </c>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5537,19 +5655,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>435</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5557,15 +5675,15 @@
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">14 เศษ  1/31 </v>
+        <v xml:space="preserve">5 เศษ 34/53 </v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53 </v>
       </c>
       <c r="L18" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">14 เศษ  1/31 </v>
+        <v xml:space="preserve">5 เศษ 34/53 </v>
       </c>
     </row>
     <row r="19" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5573,19 +5691,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>166</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>0</v>
@@ -5593,15 +5711,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">13 เศษ 16/35 </v>
+        <v xml:space="preserve">3 เศษ 13/51 </v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51 </v>
       </c>
       <c r="L19" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">13 เศษ 16/35 </v>
+        <v xml:space="preserve">3 เศษ 13/51 </v>
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5609,19 +5727,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>696</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -5629,15 +5747,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">11 เศษ 11/27 </v>
+        <v xml:space="preserve">9 เศษ 39/73 </v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51   17.) 9 เศษ 39/73 </v>
       </c>
       <c r="L20" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11 เศษ 11/27 </v>
+        <v xml:space="preserve">9 เศษ 39/73 </v>
       </c>
     </row>
     <row r="21" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5645,19 +5763,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>705</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>399</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>0</v>
@@ -5665,15 +5783,15 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">12 เศษ  9/11 </v>
+        <v xml:space="preserve">5 เศษ  4/79 </v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51   17.) 9 เศษ 39/73   18.) 5 เศษ  4/79 </v>
       </c>
       <c r="L21" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">12 เศษ  9/11 </v>
+        <v xml:space="preserve">5 เศษ  4/79 </v>
       </c>
     </row>
     <row r="22" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5681,19 +5799,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>978</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>129</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>0</v>
@@ -5701,15 +5819,15 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">42 เศษ 12/23 </v>
+        <v xml:space="preserve">7 เศษ 10/17 </v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23 </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51   17.) 9 เศษ 39/73   18.) 5 เศษ  4/79   19.) 7 เศษ 10/17 </v>
       </c>
       <c r="L22" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">42 เศษ 12/23 </v>
+        <v xml:space="preserve">7 เศษ 10/17 </v>
       </c>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1">
@@ -5717,19 +5835,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>816</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>627</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>0</v>
@@ -5737,15 +5855,15 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">15 เศษ  1/9  </v>
+        <v xml:space="preserve">8 เศษ 59/71 </v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23   20.) 15 เศษ  1/9  </v>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51   17.) 9 เศษ 39/73   18.) 5 เศษ  4/79   19.) 7 เศษ 10/17   20.) 8 เศษ 59/71 </v>
       </c>
       <c r="L23" s="30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">15 เศษ  1/9  </v>
+        <v xml:space="preserve">8 เศษ 59/71 </v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1"/>
@@ -5766,50 +5884,50 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="43" t="str">
         <f ca="1">I13</f>
-        <v xml:space="preserve">1.) 31 เศษ  1/26   2.) 5 เศษ 60/83   3.) 6 เศษ 51/86   4.) 59             5.) 3 เศษ 80/87   6.) 23 เศษ 11/12   7.) 5 เศษ 54/73   8.) 19 เศษ  2/7    9.) 2 เศษ 11/98   10.) 65 เศษ  5/13 </v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+        <v xml:space="preserve">1.) 29 เศษ  8/27   2.) 7 เศษ 29/84   3.) 5 เศษ  8/13   4.) 1 เศษ 43/68   5.) 4 เศษ 21/65   6.) 13 เศษ 29/61   7.) 20 เศษ  3/11   8.) 51 เศษ  4/9    9.) 23 เศษ  2/3    10.) 4 เศษ  7/39 </v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="38" t="str">
+      <c r="A29" s="43" t="str">
         <f ca="1">I23</f>
-        <v xml:space="preserve">11.) 6 เศษ 48/67   12.) 4 เศษ 21/46   13.) 11 เศษ 23/38   14.) 2 เศษ  3/22   15.) 14 เศษ  1/31   16.) 13 เศษ 16/35   17.) 11 เศษ 11/27   18.) 12 เศษ  9/11   19.) 42 เศษ 12/23   20.) 15 เศษ  1/9  </v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+        <v xml:space="preserve">11.) 6 เศษ  7/10   12.) 7 เศษ  8/15   13.) 9 เศษ 34/35   14.) 5 เศษ 27/41   15.) 5 เศษ 34/53   16.) 3 เศษ 13/51   17.) 9 เศษ 39/73   18.) 5 เศษ  4/79   19.) 7 เศษ 10/17   20.) 8 เศษ 59/71 </v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5818,7 +5936,7 @@
     <mergeCell ref="A29:H30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="กรอกได้แค่เลข 1-2" sqref="E3" xr:uid="{CBEFF114-E7C0-4E49-AFB4-96F25FA4048B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="กรอกได้แค่เลข 1-2" sqref="N1" xr:uid="{CBEFF114-E7C0-4E49-AFB4-96F25FA4048B}">
       <formula1>1</formula1>
       <formula2>2</formula2>
     </dataValidation>
